--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23575</v>
+        <v>47516</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>23575</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/11/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23788</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13/10/2021</t>
+          <t>25/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
+          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Álvaro Ramírez Beraun</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15751</v>
+        <v>23788</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>13/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/07/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Álvaro Ramírez Beraun</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30000</v>
+        <v>15751</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>07/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EÓLICA KOSTEN AIKE SPA</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>62000</v>
+        <v>30000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>EÓLICA KOSTEN AIKE SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>62000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eólica Kosten Aike SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>62000</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Red Aeroportuaria Austral Sociedad Concesionaria S.A.</t>
+          <t>Eólica Kosten Aike SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>70990</v>
+        <v>62000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prospecciones Mineras Toqui</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>Red Aeroportuaria Austral Sociedad Concesionaria S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7500</v>
+        <v>70990</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parqueadero de Camiones de Coyhaique</t>
+          <t>Prospecciones Mineras Toqui</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8652</v>
+        <v>7500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>02/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Parqueadero de Camiones de Coyhaique</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>770</v>
+        <v>8652</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8652</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>8652</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>77133</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/02/2018</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extensión vida útil mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>770</v>
+        <v>77133</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/01/2018</t>
+          <t>08/02/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión vida útil mina Concordia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,21 +1307,21 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3300</v>
+        <v>770</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/01/2018</t>
+          <t>11/01/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,21 +1355,21 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>770</v>
+        <v>3300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>09/01/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>77133</v>
+        <v>770</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>777</v>
+        <v>77133</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/09/2017</t>
+          <t>22/12/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3300</v>
+        <v>777</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/09/2017</t>
+          <t>27/09/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA KATTERFELD</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/07/2017</t>
+          <t>05/09/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
+          <t>PROSPECCION MINERA KATTERFELD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8483</v>
+        <v>3300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>24/07/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
+          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/12/2016</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Deposito de Relaves Mixto Doña Rosa</t>
+          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui......</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1500</v>
+        <v>8483</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/12/2015</t>
+          <t>23/12/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Mixtos Doña Rosa</t>
+          <t>Deposito de Relaves Mixto Doña Rosa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui.</t>
+          <t>Sociedad Contractual Minera El Toqui......</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/08/2015</t>
+          <t>21/12/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
+          <t>Depósito de Relaves Mixtos Doña Rosa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Sociedad Contractual Minera El Toqui.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>27/08/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Valorización de Lodos de Piscicultura</t>
+          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/11/2013</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación del Circuito de Recuperación de Oro</t>
+          <t>Valorización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1500</v>
+        <v>193</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/10/2013</t>
+          <t>19/11/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Ampliación del Circuito de Recuperación de Oro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>30/10/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
+          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inversiones Productivas SpA</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14400</v>
+        <v>25</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sistema de Ensilaje Piscicultura Emperador</t>
+          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Inversiones Productivas SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>14400</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Piscicultura Don Casimiro</t>
+          <t>Sistema de Ensilaje Piscicultura Emperador</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
+          <t>Piscicultura Don Casimiro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>4850</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>05/04/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>11/03/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1100</v>
+        <v>4850</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>21/12/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
+          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Entel S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1180</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Filtrados Doña Rosa</t>
+          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3000</v>
+        <v>1180</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
+          <t>Depósito de Relaves Filtrados Doña Rosa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
+          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1442</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,21 +3131,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>750000</v>
+        <v>1442</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>17/03/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
+          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
+          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Centro de Formación Técnica Austral (e-seia)</t>
+          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Universidad Austral de Chile</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>881</v>
+        <v>11000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17/09/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Drenaje Fundo Esperanza (e-seia)</t>
+          <t>Centro de Formación Técnica Austral (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>José Miguel Navarrete Urzúa</t>
+          <t>Universidad Austral de Chile</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/05/2009</t>
+          <t>17/09/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/05/2009</t>
+          <t>20/05/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
+          <t>Drenaje Fundo Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NORMAN GRIDLEY .</t>
+          <t>José Miguel Navarrete Urzúa</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>08/05/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
+          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>NORMAN GRIDLEY .</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19/03/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/02/2009</t>
+          <t>19/03/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PRI Coyhaique - Aysén (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>06/02/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>PRI Coyhaique - Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>22/01/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/12/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
+          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>10/12/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,12 +3986,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>28/05/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
+          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4250</v>
+        <v>10500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1500</v>
+        <v>4250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PISCICULTURA DON PACO (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
+          <t>PISCICULTURA DON PACO (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
+          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
+          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Instituto de Investigaciones Agropecuarias</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>957</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
+          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
+          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañia de Telefono de Coyhaique S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>18</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/09/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Compañia de Telefono de Coyhaique S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>04/09/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
+          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EDECO S.A. edeco edeco</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>55097</v>
+        <v>1500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>14/06/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>EDECO S.A. edeco edeco</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>55097</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
+          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Hector Burgos Uribe</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>373</v>
+        <v>1133</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
+          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Manuel Alejandro Guillermo Farias Zamora</t>
+          <t>Hector Burgos Uribe</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
+          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Manuel Alejandro Guillermo Farias Zamora</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
+          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
+          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Raul Marcelo Navarro Jorquera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
+          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Raul Marcelo Navarro Jorquera</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21/02/2005</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>21/02/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
+          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
+          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>26/01/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Agrícola González Hermanas Ltda.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/05/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
+          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>NORMA VICTORIA GONZALEZ NUALART</t>
+          <t>Agrícola González Hermanas Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>28/04/2004</t>
+          <t>12/05/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
+          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>NORMA VICTORIA GONZALEZ NUALART</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03/11/2003</t>
+          <t>28/04/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04/09/2003</t>
+          <t>03/11/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>04/09/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/06/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,12 +5992,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
+          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>06/03/2003</t>
+          <t>09/06/2003</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,12 +6040,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
+          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>9262</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>06/03/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
+          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Granja Acuicola Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>476</v>
+        <v>9262</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/01/2003</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
+          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Granja Acuicola Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>13/01/2003</t>
+          <t>20/01/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
+          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6207,17 +6207,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>13/01/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
+          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorge Alejandro Ossa Arangua</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
+          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jorge Alejandro Ossa Arangua</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
+          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,11 +6347,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Huacho</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jose Rodriguez Encalada</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
+          <t>Piscicultura Cerro Huacho</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jose Rodriguez Encalada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/03/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
+          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inversiones Oms Ltda.</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>27/03/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
+          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Inversiones Oms Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cabañas El Quincho</t>
+          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/12/2001</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
+          <t>Cabañas El Quincho</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>27/09/2001</t>
+          <t>18/12/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>27/09/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,40 +6856,40 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto Alumysa</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2.75</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,12 +6904,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
+          <t>Proyecto Alumysa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Teresita Carrillo Borquez</t>
+          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>2.75</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Piscicultura Los Fiordos XI Región</t>
+          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Teresita Carrillo Borquez</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/07/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Coyhaique XI Región</t>
+          <t>Piscicultura Los Fiordos XI Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>11/07/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ampliación Vertedero de Coyhaique</t>
+          <t>Estación de Servicio Copec Coyhaique XI Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Plan Seccional de Ñirehuao</t>
+          <t>Ampliación Vertedero de Coyhaique</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Restaurante El Quincho</t>
+          <t>Plan Seccional de Ñirehuao</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21/12/2000</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lodge Campo Bravo</t>
+          <t>Restaurante El Quincho</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Martha Mary Lyn Crawford</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>18/12/2000</t>
+          <t>21/12/2000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Presa y Turbina Lago Diunco</t>
+          <t>Lodge Campo Bravo</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
+          <t>Presa y Turbina Lago Diunco</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,21 +7307,21 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>15/12/2000</t>
+          <t>18/12/2000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
+          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Martha Mary Lyn Crawford</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/07/2000</t>
+          <t>15/12/2000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
+          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/09/1999</t>
+          <t>13/07/2000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Plan Seccional de Balmaceda</t>
+          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>14/05/1999</t>
+          <t>10/09/1999</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Plan Seccional de El Blanco</t>
+          <t>Plan Seccional de Balmaceda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Plan Seccional de Valle Simpson</t>
+          <t>Plan Seccional de El Blanco</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Plan Seccional de Baguales</t>
+          <t>Plan Seccional de Valle Simpson</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Plan Seccional de Villa Frei</t>
+          <t>Plan Seccional de Baguales</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO</t>
+          <t>Plan Seccional de Villa Frei</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>14/05/1999</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
+          <t>Estación de Servicio ESSO</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
+          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ENAGAS S.A.</t>
+          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/09/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Lago Atravesado</t>
+          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
+          <t>ENAGAS S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>30/07/1998</t>
+          <t>22/09/1998</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
+          <t>Central Hidroeléctrica Lago Atravesado</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Agropatagonia Ltda.</t>
+          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>110</v>
+        <v>24000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/07/1998</t>
+          <t>30/07/1998</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
+          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Agropatagonia Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>22/07/1998</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
+          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cristián Lira Breitler</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Drenaje Valle Simpson</t>
+          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Georgio Catalán Patiño</t>
+          <t>Cristián Lira Breitler</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Furioso Exploración Veta Laguna</t>
+          <t>Drenaje Valle Simpson</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CDE Chilean Mining Corporation</t>
+          <t>Georgio Catalán Patiño</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5000</v>
+        <v>130</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>29/04/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
+          <t>Proyecto Furioso Exploración Veta Laguna</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>29/04/1998</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nuevo Relleno Sanitario</t>
+          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/01/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
+          <t>Nuevo Relleno Sanitario</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Comité Habitacional Chacra # 21</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09/01/1998</t>
+          <t>16/01/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Proyecto Patagonia de Exploración Minera</t>
+          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aur Resources Colin Charles Brooks</t>
+          <t>Comité Habitacional Chacra # 21</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>09/01/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,43 +8296,91 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Proyecto Patagonia de Exploración Minera</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Aur Resources Colin Charles Brooks</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>500</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Puerto Seco Frigonza</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Inmobiliaria Inversiones FRIGONZA Ltda.</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>44000</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>08/10/1997</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>Coyhaique</t>
         </is>

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/02/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Red Aeroportuaria Austral Sociedad Concesionaria S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F12" t="n">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Sociedad Minera Pacífico del Sur SpA.</t>
         </is>
       </c>
       <c r="F61" t="n">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
+          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Coyhaique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>GASCO GLP S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>47516</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>06/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23575</v>
+        <v>47516</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30000</v>
+        <v>23575</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/11/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>23788</v>
+        <v>30000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13/10/2021</t>
+          <t>25/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
+          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Álvaro Ramírez Beraun</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15751</v>
+        <v>23788</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>13/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/07/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Álvaro Ramírez Beraun</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30000</v>
+        <v>15751</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>07/07/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EÓLICA KOSTEN AIKE SPA</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>62000</v>
+        <v>30000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>EÓLICA KOSTEN AIKE SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>62000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eólica Kosten Aike SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>62000</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Eólica Kosten Aike SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>70990</v>
+        <v>62000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Prospecciones Mineras Toqui</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7500</v>
+        <v>70990</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parqueadero de Camiones de Coyhaique</t>
+          <t>Prospecciones Mineras Toqui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8652</v>
+        <v>7500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>02/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Parqueadero de Camiones de Coyhaique</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>770</v>
+        <v>8652</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8652</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>8652</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>77133</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/02/2018</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extensión vida útil mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>770</v>
+        <v>77133</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/01/2018</t>
+          <t>08/02/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión vida útil mina Concordia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,21 +1355,21 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3300</v>
+        <v>770</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/01/2018</t>
+          <t>11/01/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>770</v>
+        <v>3300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>09/01/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>77133</v>
+        <v>770</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>777</v>
+        <v>77133</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/09/2017</t>
+          <t>22/12/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3300</v>
+        <v>777</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/09/2017</t>
+          <t>27/09/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA KATTERFELD</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/07/2017</t>
+          <t>05/09/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
+          <t>PROSPECCION MINERA KATTERFELD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8483</v>
+        <v>3300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>24/07/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
+          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/12/2016</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Deposito de Relaves Mixto Doña Rosa</t>
+          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui......</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1500</v>
+        <v>8483</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/12/2015</t>
+          <t>23/12/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Mixtos Doña Rosa</t>
+          <t>Deposito de Relaves Mixto Doña Rosa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui.</t>
+          <t>Sociedad Contractual Minera El Toqui......</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/08/2015</t>
+          <t>21/12/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
+          <t>Depósito de Relaves Mixtos Doña Rosa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Sociedad Contractual Minera El Toqui.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>27/08/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Valorización de Lodos de Piscicultura</t>
+          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/11/2013</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación del Circuito de Recuperación de Oro</t>
+          <t>Valorización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1500</v>
+        <v>193</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/10/2013</t>
+          <t>19/11/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Ampliación del Circuito de Recuperación de Oro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>30/10/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
+          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inversiones Productivas SpA</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>14400</v>
+        <v>25</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sistema de Ensilaje Piscicultura Emperador</t>
+          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Inversiones Productivas SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
+        <v>14400</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Piscicultura Don Casimiro</t>
+          <t>Sistema de Ensilaje Piscicultura Emperador</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
+          <t>Piscicultura Don Casimiro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>4850</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>05/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>11/03/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>4850</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>21/12/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
+          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Entel S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1180</v>
+        <v>4000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Filtrados Doña Rosa</t>
+          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3000</v>
+        <v>1180</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
+          <t>Depósito de Relaves Filtrados Doña Rosa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
+          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1442</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>750000</v>
+        <v>1442</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>17/03/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
+          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Minera Pacífico del Sur SpA.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
+          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Sociedad Minera Pacífico del Sur SpA.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Formación Técnica Austral (e-seia)</t>
+          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Universidad Austral de Chile</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>881</v>
+        <v>11000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17/09/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Drenaje Fundo Esperanza (e-seia)</t>
+          <t>Centro de Formación Técnica Austral (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>José Miguel Navarrete Urzúa</t>
+          <t>Universidad Austral de Chile</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/05/2009</t>
+          <t>17/09/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/05/2009</t>
+          <t>20/05/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
+          <t>Drenaje Fundo Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NORMAN GRIDLEY .</t>
+          <t>José Miguel Navarrete Urzúa</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>08/05/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
+          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>NORMAN GRIDLEY .</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19/03/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/02/2009</t>
+          <t>19/03/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PRI Coyhaique - Aysén (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>06/02/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>PRI Coyhaique - Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>22/01/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/12/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
+          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>10/12/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>28/05/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
+          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4250</v>
+        <v>10500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1500</v>
+        <v>4250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PISCICULTURA DON PACO (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
+          <t>PISCICULTURA DON PACO (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
+          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
+          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Instituto de Investigaciones Agropecuarias</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>957</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
+          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
+          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañia de Telefono de Coyhaique S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>18</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>04/09/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Compañia de Telefono de Coyhaique S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>04/09/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
+          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EDECO S.A. edeco edeco</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>55097</v>
+        <v>1500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>14/06/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>EDECO S.A. edeco edeco</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>55097</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
+          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hector Burgos Uribe</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>373</v>
+        <v>1133</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
+          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Manuel Alejandro Guillermo Farias Zamora</t>
+          <t>Hector Burgos Uribe</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
+          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Manuel Alejandro Guillermo Farias Zamora</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
+          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
+          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Raul Marcelo Navarro Jorquera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
+          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Raul Marcelo Navarro Jorquera</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/02/2005</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>21/02/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
+          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
+          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>26/01/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Agrícola González Hermanas Ltda.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/05/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
+          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NORMA VICTORIA GONZALEZ NUALART</t>
+          <t>Agrícola González Hermanas Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>28/04/2004</t>
+          <t>12/05/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
+          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>NORMA VICTORIA GONZALEZ NUALART</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>03/11/2003</t>
+          <t>28/04/2004</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04/09/2003</t>
+          <t>03/11/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>04/09/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09/06/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,12 +6040,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
+          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06/03/2003</t>
+          <t>09/06/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,12 +6088,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
+          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>9262</v>
+        <v>1200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>06/03/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
+          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Granja Acuicola Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>476</v>
+        <v>9262</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/01/2003</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
+          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Granja Acuicola Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>13/01/2003</t>
+          <t>20/01/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
+          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>13/01/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
+          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorge Alejandro Ossa Arangua</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
+          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jorge Alejandro Ossa Arangua</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
+          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,11 +6395,11 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Huacho</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jose Rodriguez Encalada</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
+          <t>Piscicultura Cerro Huacho</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jose Rodriguez Encalada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/03/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
+          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inversiones Oms Ltda.</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>27/03/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
+          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Inversiones Oms Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cabañas El Quincho</t>
+          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/12/2001</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
+          <t>Cabañas El Quincho</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>27/09/2001</t>
+          <t>18/12/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>27/09/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,40 +6904,40 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Alumysa</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.75</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,12 +6952,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
+          <t>Proyecto Alumysa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Teresita Carrillo Borquez</t>
+          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>2.75</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Piscicultura Los Fiordos XI Región</t>
+          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Teresita Carrillo Borquez</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/07/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Coyhaique XI Región</t>
+          <t>Piscicultura Los Fiordos XI Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>11/07/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Vertedero de Coyhaique</t>
+          <t>Estación de Servicio Copec Coyhaique XI Región</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Plan Seccional de Ñirehuao</t>
+          <t>Ampliación Vertedero de Coyhaique</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7167,17 +7167,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Restaurante El Quincho</t>
+          <t>Plan Seccional de Ñirehuao</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>21/12/2000</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lodge Campo Bravo</t>
+          <t>Restaurante El Quincho</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Martha Mary Lyn Crawford</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>18/12/2000</t>
+          <t>21/12/2000</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Presa y Turbina Lago Diunco</t>
+          <t>Lodge Campo Bravo</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
+          <t>Presa y Turbina Lago Diunco</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,21 +7355,21 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/12/2000</t>
+          <t>18/12/2000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
+          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Martha Mary Lyn Crawford</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/07/2000</t>
+          <t>15/12/2000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
+          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10/09/1999</t>
+          <t>13/07/2000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Plan Seccional de Balmaceda</t>
+          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>14/05/1999</t>
+          <t>10/09/1999</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Plan Seccional de El Blanco</t>
+          <t>Plan Seccional de Balmaceda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Plan Seccional de Valle Simpson</t>
+          <t>Plan Seccional de El Blanco</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Plan Seccional de Baguales</t>
+          <t>Plan Seccional de Valle Simpson</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Plan Seccional de Villa Frei</t>
+          <t>Plan Seccional de Baguales</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO</t>
+          <t>Plan Seccional de Villa Frei</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>14/05/1999</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
+          <t>Estación de Servicio ESSO</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
+          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ENAGAS S.A.</t>
+          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>22/09/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Lago Atravesado</t>
+          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
+          <t>ENAGAS S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>30/07/1998</t>
+          <t>22/09/1998</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
+          <t>Central Hidroeléctrica Lago Atravesado</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Agropatagonia Ltda.</t>
+          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>110</v>
+        <v>24000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>22/07/1998</t>
+          <t>30/07/1998</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
+          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Agropatagonia Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>22/07/1998</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
+          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cristián Lira Breitler</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Drenaje Valle Simpson</t>
+          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Georgio Catalán Patiño</t>
+          <t>Cristián Lira Breitler</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Furioso Exploración Veta Laguna</t>
+          <t>Drenaje Valle Simpson</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CDE Chilean Mining Corporation</t>
+          <t>Georgio Catalán Patiño</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5000</v>
+        <v>130</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29/04/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
+          <t>Proyecto Furioso Exploración Veta Laguna</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>29/04/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nuevo Relleno Sanitario</t>
+          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>16/01/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
+          <t>Nuevo Relleno Sanitario</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Comité Habitacional Chacra # 21</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>09/01/1998</t>
+          <t>16/01/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Proyecto Patagonia de Exploración Minera</t>
+          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Aur Resources Colin Charles Brooks</t>
+          <t>Comité Habitacional Chacra # 21</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>09/01/1998</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,43 +8344,91 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>Proyecto Patagonia de Exploración Minera</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Aur Resources Colin Charles Brooks</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>500</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Puerto Seco Frigonza</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>Inmobiliaria Inversiones FRIGONZA Ltda.</t>
         </is>
       </c>
-      <c r="F167" t="n">
+      <c r="F168" t="n">
         <v>44000</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>08/10/1997</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>Coyhaique</t>
         </is>

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/05/2022</t>
+          <t>13/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/05/2022</t>
+          <t>09/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155900920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
+          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Coyhaique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>GASCO GLP S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>47516</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>13/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23575</v>
+        <v>47516</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30000</v>
+        <v>23575</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/11/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>23788</v>
+        <v>30000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/10/2021</t>
+          <t>25/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
+          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Álvaro Ramírez Beraun</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15751</v>
+        <v>23788</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>13/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/07/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Álvaro Ramírez Beraun</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30000</v>
+        <v>15751</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>07/07/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EÓLICA KOSTEN AIKE SPA</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>62000</v>
+        <v>30000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>EÓLICA KOSTEN AIKE SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>62000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eólica Kosten Aike SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>62000</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Eólica Kosten Aike SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>70990</v>
+        <v>62000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Prospecciones Mineras Toqui</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7500</v>
+        <v>70990</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parqueadero de Camiones de Coyhaique</t>
+          <t>Prospecciones Mineras Toqui</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8652</v>
+        <v>7500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>02/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Parqueadero de Camiones de Coyhaique</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>770</v>
+        <v>8652</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8652</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>8652</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>77133</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/02/2018</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extensión vida útil mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>770</v>
+        <v>77133</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11/01/2018</t>
+          <t>08/02/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión vida útil mina Concordia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3300</v>
+        <v>770</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/01/2018</t>
+          <t>11/01/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,21 +1451,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>770</v>
+        <v>3300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>09/01/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>77133</v>
+        <v>770</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>777</v>
+        <v>77133</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27/09/2017</t>
+          <t>22/12/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3300</v>
+        <v>777</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/09/2017</t>
+          <t>27/09/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA KATTERFELD</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/07/2017</t>
+          <t>05/09/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
+          <t>PROSPECCION MINERA KATTERFELD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8483</v>
+        <v>3300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>24/07/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
+          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/12/2016</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Deposito de Relaves Mixto Doña Rosa</t>
+          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui......</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1500</v>
+        <v>8483</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/12/2015</t>
+          <t>23/12/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Mixtos Doña Rosa</t>
+          <t>Deposito de Relaves Mixto Doña Rosa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui.</t>
+          <t>Sociedad Contractual Minera El Toqui......</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/08/2015</t>
+          <t>21/12/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
+          <t>Depósito de Relaves Mixtos Doña Rosa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Sociedad Contractual Minera El Toqui.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>27/08/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Valorización de Lodos de Piscicultura</t>
+          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/11/2013</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación del Circuito de Recuperación de Oro</t>
+          <t>Valorización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>193</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/10/2013</t>
+          <t>19/11/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Ampliación del Circuito de Recuperación de Oro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>30/10/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
+          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Inversiones Productivas SpA</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14400</v>
+        <v>25</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sistema de Ensilaje Piscicultura Emperador</t>
+          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Inversiones Productivas SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>14400</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Piscicultura Don Casimiro</t>
+          <t>Sistema de Ensilaje Piscicultura Emperador</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
+          <t>Piscicultura Don Casimiro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>4850</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>05/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>11/03/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1100</v>
+        <v>4850</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>21/12/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
+          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Entel S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1180</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Filtrados Doña Rosa</t>
+          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>1180</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
+          <t>Depósito de Relaves Filtrados Doña Rosa</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
+          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1442</v>
+        <v>3000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>750000</v>
+        <v>1442</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>17/03/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
+          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Minera Pacífico del Sur SpA.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
+          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Sociedad Minera Pacífico del Sur SpA.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Formación Técnica Austral (e-seia)</t>
+          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Universidad Austral de Chile</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>881</v>
+        <v>11000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17/09/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Drenaje Fundo Esperanza (e-seia)</t>
+          <t>Centro de Formación Técnica Austral (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>José Miguel Navarrete Urzúa</t>
+          <t>Universidad Austral de Chile</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/05/2009</t>
+          <t>17/09/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/05/2009</t>
+          <t>20/05/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
+          <t>Drenaje Fundo Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NORMAN GRIDLEY .</t>
+          <t>José Miguel Navarrete Urzúa</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>08/05/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
+          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>NORMAN GRIDLEY .</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19/03/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>06/02/2009</t>
+          <t>19/03/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PRI Coyhaique - Aysén (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>06/02/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>PRI Coyhaique - Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>22/01/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/12/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
+          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>10/12/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,12 +4082,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>28/05/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
+          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4250</v>
+        <v>10500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1500</v>
+        <v>4250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PISCICULTURA DON PACO (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
+          <t>PISCICULTURA DON PACO (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
+          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
+          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Instituto de Investigaciones Agropecuarias</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>957</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
+          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
+          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Compañia de Telefono de Coyhaique S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>18</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>04/09/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Compañia de Telefono de Coyhaique S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>04/09/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
+          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EDECO S.A. edeco edeco</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55097</v>
+        <v>1500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>14/06/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>EDECO S.A. edeco edeco</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>55097</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
+          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hector Burgos Uribe</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>373</v>
+        <v>1133</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
+          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Manuel Alejandro Guillermo Farias Zamora</t>
+          <t>Hector Burgos Uribe</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
+          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Manuel Alejandro Guillermo Farias Zamora</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
+          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
+          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Raul Marcelo Navarro Jorquera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
+          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Raul Marcelo Navarro Jorquera</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/02/2005</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>21/02/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
+          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
+          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>26/01/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Agrícola González Hermanas Ltda.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/05/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
+          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>NORMA VICTORIA GONZALEZ NUALART</t>
+          <t>Agrícola González Hermanas Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>28/04/2004</t>
+          <t>12/05/2004</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
+          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>NORMA VICTORIA GONZALEZ NUALART</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>03/11/2003</t>
+          <t>28/04/2004</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>04/09/2003</t>
+          <t>03/11/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>04/09/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>09/06/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,12 +6088,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
+          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06/03/2003</t>
+          <t>09/06/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
+          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>9262</v>
+        <v>1200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>06/03/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
+          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Granja Acuicola Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>476</v>
+        <v>9262</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/01/2003</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
+          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Granja Acuicola Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13/01/2003</t>
+          <t>20/01/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
+          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>13/01/2003</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
+          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorge Alejandro Ossa Arangua</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
+          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jorge Alejandro Ossa Arangua</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
+          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,11 +6443,11 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Huacho</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Jose Rodriguez Encalada</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
+          <t>Piscicultura Cerro Huacho</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jose Rodriguez Encalada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/03/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
+          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inversiones Oms Ltda.</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>27/03/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
+          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Inversiones Oms Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cabañas El Quincho</t>
+          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/12/2001</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
+          <t>Cabañas El Quincho</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>27/09/2001</t>
+          <t>18/12/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>27/09/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,40 +6952,40 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Alumysa</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.75</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
+          <t>Proyecto Alumysa</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Teresita Carrillo Borquez</t>
+          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>2.75</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Piscicultura Los Fiordos XI Región</t>
+          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Teresita Carrillo Borquez</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11/07/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Coyhaique XI Región</t>
+          <t>Piscicultura Los Fiordos XI Región</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>11/07/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Vertedero de Coyhaique</t>
+          <t>Estación de Servicio Copec Coyhaique XI Región</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Seccional de Ñirehuao</t>
+          <t>Ampliación Vertedero de Coyhaique</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7215,17 +7215,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Restaurante El Quincho</t>
+          <t>Plan Seccional de Ñirehuao</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21/12/2000</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lodge Campo Bravo</t>
+          <t>Restaurante El Quincho</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Martha Mary Lyn Crawford</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>18/12/2000</t>
+          <t>21/12/2000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Presa y Turbina Lago Diunco</t>
+          <t>Lodge Campo Bravo</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
+          <t>Presa y Turbina Lago Diunco</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,21 +7403,21 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/12/2000</t>
+          <t>18/12/2000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
+          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Martha Mary Lyn Crawford</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/07/2000</t>
+          <t>15/12/2000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
+          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>10/09/1999</t>
+          <t>13/07/2000</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Plan Seccional de Balmaceda</t>
+          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>14/05/1999</t>
+          <t>10/09/1999</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Plan Seccional de El Blanco</t>
+          <t>Plan Seccional de Balmaceda</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Plan Seccional de Valle Simpson</t>
+          <t>Plan Seccional de El Blanco</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Plan Seccional de Baguales</t>
+          <t>Plan Seccional de Valle Simpson</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Plan Seccional de Villa Frei</t>
+          <t>Plan Seccional de Baguales</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO</t>
+          <t>Plan Seccional de Villa Frei</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>14/05/1999</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
+          <t>Estación de Servicio ESSO</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
+          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ENAGAS S.A.</t>
+          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/09/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Lago Atravesado</t>
+          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
+          <t>ENAGAS S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>30/07/1998</t>
+          <t>22/09/1998</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
+          <t>Central Hidroeléctrica Lago Atravesado</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Agropatagonia Ltda.</t>
+          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>110</v>
+        <v>24000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>22/07/1998</t>
+          <t>30/07/1998</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
+          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Agropatagonia Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>22/07/1998</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
+          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Cristián Lira Breitler</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Drenaje Valle Simpson</t>
+          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Georgio Catalán Patiño</t>
+          <t>Cristián Lira Breitler</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Furioso Exploración Veta Laguna</t>
+          <t>Drenaje Valle Simpson</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CDE Chilean Mining Corporation</t>
+          <t>Georgio Catalán Patiño</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5000</v>
+        <v>130</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>29/04/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
+          <t>Proyecto Furioso Exploración Veta Laguna</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>29/04/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nuevo Relleno Sanitario</t>
+          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>16/01/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
+          <t>Nuevo Relleno Sanitario</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Comité Habitacional Chacra # 21</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09/01/1998</t>
+          <t>16/01/1998</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Proyecto Patagonia de Exploración Minera</t>
+          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,15 +8359,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aur Resources Colin Charles Brooks</t>
+          <t>Comité Habitacional Chacra # 21</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>09/01/1998</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,43 +8392,91 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>Proyecto Patagonia de Exploración Minera</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Aur Resources Colin Charles Brooks</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>500</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>Puerto Seco Frigonza</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t>Inmobiliaria Inversiones FRIGONZA Ltda.</t>
         </is>
       </c>
-      <c r="F168" t="n">
+      <c r="F169" t="n">
         <v>44000</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>08/10/1997</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>Coyhaique</t>
         </is>

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/06/2022</t>
+          <t>16/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Coyhaique</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ?CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GASCO GLP S.A.</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>20505</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2022</t>
+          <t>25/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155900920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157725424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/05/2022</t>
+          <t>16/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155900920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
+          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Coyhaique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>GASCO GLP S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>47516</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>13/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>23575</v>
+        <v>47516</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155216111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN MACROINFRAESTRUCTURA SECTOR ESCUELA AGRÍCOLA CHACRA G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>23575</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/11/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154463299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>23788</v>
+        <v>30000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/10/2021</t>
+          <t>25/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154158048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
+          <t>Construcción Macroinfraestructura Sector Escuela Agrícola Chacra G</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Álvaro Ramírez Beraun</t>
+          <t>Servicio de Vivienda y Urbanización Región de Aysen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>15751</v>
+        <v>23788</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>13/10/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153498086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/07/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153176607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Alto Baguales</t>
+          <t>CONSTRUCCIÓN INFRAESTRUCTURA FUNDACIONAL UNIVERSIDAD DE AYSÉN ETAPA II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Álvaro Ramírez Beraun</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30000</v>
+        <v>15751</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>07/07/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152448675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación Parque Eólico Alto Baguales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EÓLICA KOSTEN AIKE SPA</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>62000</v>
+        <v>30000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150824999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>EÓLICA KOSTEN AIKE SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>62000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149081632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Kosten Aike</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eólica Kosten Aike SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>62000</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Proyecto Eólico Kosten Aike</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Eólica Kosten Aike SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>70990</v>
+        <v>62000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Prospecciones Mineras Toqui</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7500</v>
+        <v>70990</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142388329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parqueadero de Camiones de Coyhaique</t>
+          <t>Prospecciones Mineras Toqui</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8652</v>
+        <v>7500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>02/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142080117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Parqueadero de Camiones de Coyhaique</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>770</v>
+        <v>8652</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139156491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8652</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138780938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
+          <t>Declaración de Impacto Ambiental Proyecto Parquedero de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>8652</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138927286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Ampliación de la Planta de Tratamiento de Aguas Servidas Coyhaique</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>77133</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/02/2018</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138436014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extensión vida útil mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>770</v>
+        <v>77133</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/01/2018</t>
+          <t>08/02/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138417319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión vida útil mina Concordia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,21 +1451,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3300</v>
+        <v>770</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/01/2018</t>
+          <t>11/01/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138164543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>770</v>
+        <v>3300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>09/01/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>77133</v>
+        <v>770</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138096558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extensión Vida Útil Mina Concordia</t>
+          <t>Ampliación y Mejoramiento Aeródromo Balmaceda</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>777</v>
+        <v>77133</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/09/2017</t>
+          <t>22/12/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133364541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
+          <t>Extensión Vida Útil Mina Concordia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3300</v>
+        <v>777</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/09/2017</t>
+          <t>27/09/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132739099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA KATTERFELD</t>
+          <t>PROSPECCION MINERA PROYECTO KATTERFELD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/07/2017</t>
+          <t>05/09/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132667897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
+          <t>PROSPECCION MINERA KATTERFELD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
+          <t>SOC CONTRACTUAL MINERA EL TOQUI...</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8483</v>
+        <v>3300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>24/07/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132563855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
+          <t>Declaración de Impacto Ambiental Proyecto Construcción Parqueadero de Camiones Ciudad de Coyhaique</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/12/2016</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Deposito de Relaves Mixto Doña Rosa</t>
+          <t>CONSTRUCCION PARQUEADERO DE CAMIONES CIUDAD DE COYHAIQUE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui......</t>
+          <t>Asociación Gremial de Dueños de Camiones Coyhaique</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1500</v>
+        <v>8483</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/12/2015</t>
+          <t>23/12/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132001600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Mixtos Doña Rosa</t>
+          <t>Deposito de Relaves Mixto Doña Rosa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui.</t>
+          <t>Sociedad Contractual Minera El Toqui......</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/08/2015</t>
+          <t>21/12/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130995973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
+          <t>Depósito de Relaves Mixtos Doña Rosa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Sociedad Contractual Minera El Toqui.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>27/08/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130706160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Valorización de Lodos de Piscicultura</t>
+          <t>Ampliación y Normalización de Almacenamiento de Combustible</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/11/2013</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129590741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación del Circuito de Recuperación de Oro</t>
+          <t>Valorización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad contractual Minera El Toqui.......</t>
+          <t>Instituto de Investigaciones Agropecuarias (Centro Regional de Investigación INIA Tamel Aike)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>193</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/10/2013</t>
+          <t>19/11/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128829475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Ampliación del Circuito de Recuperación de Oro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad contractual Minera El Toqui.......</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>30/10/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
+          <t>"Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Don Paco" Sistema de Ensilaje en Piscicultura Don Paco</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6610852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Modificación al Manejo de MoModificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en Piscicultura Doña Ana Sistema de Ensilaje en Piscicultura Doña Ana</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inversiones Productivas SpA</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>14400</v>
+        <v>25</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6613076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sistema de Ensilaje Piscicultura Emperador</t>
+          <t>Matadero Frigorico INPROSA SPA MATADERO VIMPROSA SPA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Inversiones Productivas SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>14400</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6436118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Piscicultura Don Casimiro</t>
+          <t>Sistema de Ensilaje Piscicultura Emperador</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
+          <t>Piscicultura Don Casimiro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>"Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5568609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Molino Rahue S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2500</v>
+        <v>4850</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>05/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Piscicultura de Recirculación Molino Rahue, Río Picaflor−Región Aysén</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda.</t>
+          <t>Molino Rahue S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4850</v>
+        <v>2500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Faenadora Cisne Austral Ltda</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>11/03/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
+          <t>Faenadora Cisne Austral Ltda</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Faenadora Cisne Austral Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1100</v>
+        <v>4850</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5221265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, AGUAS PATAGONIA S.A., COYHAIQUE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>21/12/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5173026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
+          <t>Ampliación Central Hidroeléctrica El Toqui CH El Toqui</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Entel S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1180</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5144721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Filtrados Doña Rosa</t>
+          <t>Fibra optica nodo ibañez tramo reserva nacional cerro castillo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>1180</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070612&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
+          <t>Depósito de Relaves Filtrados Doña Rosa</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4765719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
+          <t>Declaración de Impacto Ambiental Parque Ogana Parque Ogana</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Asociación Gremial Agrícola y Ganadera Austral</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1442</v>
+        <v>3000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4508469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental CEMARC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,21 +3275,21 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>750000</v>
+        <v>1442</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>17/03/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4442626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Mejoramiento Técnico, Operacional y Ambiental Centro de Manejo de Residuos Coyhaique, CEMARC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/01/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4366881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
+          <t>Diagnóstico Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Minera Pacífico del Sur SpA.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>14/01/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4282038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
+          <t>RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA 000 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Sociedad Minera Pacífico del Sur SpA.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4208680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Formación Técnica Austral (e-seia)</t>
+          <t>PROYECTO RECUPERACIÓN DE PILARES CON RELLENO DE RELAVES EN PASTA (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Universidad Austral de Chile</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>881</v>
+        <v>11000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/09/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4182050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Drenaje Fundo Esperanza (e-seia)</t>
+          <t>Centro de Formación Técnica Austral (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>José Miguel Navarrete Urzúa</t>
+          <t>Universidad Austral de Chile</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/05/2009</t>
+          <t>17/09/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4056206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/05/2009</t>
+          <t>20/05/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
+          <t>Drenaje Fundo Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NORMAN GRIDLEY .</t>
+          <t>José Miguel Navarrete Urzúa</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>08/05/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3754179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
+          <t>PRODUCCIÓN Y TRANSPORTE DE RELAVES ESPESADOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>NORMAN GRIDLEY .</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>19/03/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Coyhaique. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/02/2009</t>
+          <t>19/03/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3636003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PRI Coyhaique - Aysén (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>06/02/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
+          <t>PRI Coyhaique - Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3491807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Mejoramiento de Aspectos Técnicos, Operacionales y Ambientales Centro de Manejo de Residuos Coyhaique, CEMARC (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>22/01/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/12/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3421603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
+          <t>Plan Regulador Intercomunal Coyhaique-Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Aysén</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>10/12/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>DEPÓSITO DE REVALES ESPESADOS SAN ANTONIO (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,12 +4130,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Coyhaique 000 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>28/05/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
+          <t>Aumento Potencia Central Tehuelche (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4250</v>
+        <v>10500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Minero Concordia (e-seia)</t>
+          <t>Aumento Potencia Central Eólica Alto Baguales (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1500</v>
+        <v>4250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PISCICULTURA DON PACO (e-seia)</t>
+          <t>Proyecto Minero Concordia (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
+          <t>PISCICULTURA DON PACO (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Instituto de Investigaciones Agropecuarias</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2547940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
+          <t>Uso sustentable de lodos, provenientes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volacánico en la Patagonia Occidental (Aysén) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
+          <t>Uso sustentable de lodos procedentes de la fase de crianza de salmónidos sobre suelos agropecuarios de origen volcánico en la patagonia occidental Aysén. Usosustentable de lodos procedentes de la fase de (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Piscicultura Garo Sociedad Anonima</t>
+          <t>Instituto de Investigaciones Agropecuarias</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>957</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
+          <t>PISCICULTURA GARO, sector Valle Simpson. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2404273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
+          <t>Piscicultura Garo "Sector Valle Simpson. Coyhaique XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Compañia de Telefono de Coyhaique S.A.</t>
+          <t>Piscicultura Garo Sociedad Anonima</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>18</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/09/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>FDT-2007-01:Fibra Optica Austral Chiloe-Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañia de Telefono de Coyhaique S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>04/09/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2361774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
+          <t>Piscicultura de Recirculación Río Picaflor, Molino Rahue SA. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EDECO S.A. edeco edeco</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>55097</v>
+        <v>1500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>14/06/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos en Cauce del Río Claro (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>EDECO S.A. edeco edeco</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>55097</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1928253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
+          <t>MODIFICACIÓN AL PLAN REGULADOR COMUNAL DE COYHAIQUE: RECINTO OGANA (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1888920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
+          <t>Mejoramiento PTAS de Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hector Burgos Uribe</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>373</v>
+        <v>1133</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
+          <t>IMPLEMENTACION DE INFRAESTRUCTURA DE TELECOMUNICACIONES EN PORTEZUELO IBAÑEZ (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Alejandro Guillermo Farias Zamora</t>
+          <t>Hector Burgos Uribe</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
+          <t>Mejoramiento del Circuito de Recuperación de Oro (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Molino Rahue SA.</t>
+          <t>Manuel Alejandro Guillermo Farias Zamora</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1517970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
+          <t>Piscicultura Molino Rahue - Segunda Presentacion (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1428746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Piscicultura de Recirculación Molino Rahue SA (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Molino Rahue SA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
+          <t>Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Raul Marcelo Navarro Jorquera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
+          <t>CONSTRUCCION DE CAMINO DE CONEXION DEL PREDIO RIO TURBIO LOTE B POR RESERVA NACIONAL CERRO CASTILLO (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>Raul Marcelo Navarro Jorquera</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/02/2005</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=679292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
+          <t>NUEVO CEMENTERIO MUNICIPAL DE COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>21/02/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=609784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
+          <t>DIA, Modificación a Sistema de Recirculación, Piscicultura Mano Negra (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=595067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
+          <t>MODIFICACIÓN A SISTEMA DE RECIRCULACIÓN, PISCICULTURA MANO NEGRA (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>26/01/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=582607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>MODIFICACION PROYECTO COYHAIQUE (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=418157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Agrícola González Hermanas Ltda.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/05/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
+          <t>Piscicultura Río Picaflor N° 3, N° Pert 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NORMA VICTORIA GONZALEZ NUALART</t>
+          <t>Agrícola González Hermanas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/04/2004</t>
+          <t>12/05/2004</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
+          <t>PISCICULTURA RIO PICAFLOR N°3, N°PERT 200111096 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
+          <t>NORMA VICTORIA GONZALEZ NUALART</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03/11/2003</t>
+          <t>28/04/2004</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=336836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>CRECIMIENTO DEL TRANQUE DE RELAVES CONFLUENCIA (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL TOQUI.....</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>04/09/2003</t>
+          <t>03/11/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>04/09/2003</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Coyhaique (e-seia)</t>
+          <t>PLANTA COYHAIQUE EMPRESA ABASTECEDORA DE COMBUSTIBLES S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
+          <t>Proyecto Coyhaique (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Patagonia Gold Chile Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Modificación Piscicultura Los Fiordos XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/06/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
+          <t>RIO CLARO - 2011 11 365 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/03/2003</t>
+          <t>09/06/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
+          <t>CENTRO DE MANEJO DE RESIDUOS COYHAIQUE (CEMARC)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Coyhaique, Región de Aysén.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>9262</v>
+        <v>1200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>06/03/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
+          <t>Obras para el Control Aluvional y Disposición Final de Flujos Aluvionales en las Quebradas del Cerro Divisadero, Coyhaique, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Granja Acuicola Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>476</v>
+        <v>9262</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/01/2003</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
+          <t>Piscicultura Arroyo Chico Fundo Pampa Chica (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Granja Acuicola Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13/01/2003</t>
+          <t>20/01/2003</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
+          <t>Rectificación de la Modificación 2001 al Plan Regulador de Coyhaique.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>13/01/2003</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
+          <t>Red de Alcantarillado de Aguas Servidas y Plantas de Tratamiento de Aguas Servidas de Balmaceda</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorge Alejandro Ossa Arangua</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
+          <t>Piscicultura Predio Santa Margarita Pert. 200111891</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jorge Alejandro Ossa Arangua</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
+          <t>Sistema de Agua Potable Rural Localidad de Alto Baguales</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,11 +6491,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Villa Ortega</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Valle Simpson</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Ñirehuao</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Huacho</t>
+          <t>Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de El Blanco</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jose Rodriguez Encalada</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
+          <t>Piscicultura Cerro Huacho</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Jose Rodriguez Encalada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/03/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
+          <t>Modificación 2001 al Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inversiones Oms Ltda.</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>27/03/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
+          <t>Sistema Particular de Alcantarilla y Agua Potable Cabañas Don Joaquin</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Inversiones Oms Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cabañas El Quincho</t>
+          <t>Disposición de Residuos Sólidos Domésticos e Industriales No Peligrosos Minera El Toqui</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/12/2001</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
+          <t>Cabañas El Quincho</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/09/2001</t>
+          <t>18/12/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Operación de Máquina Lavado para Automóviles Estación de Servicios ESSO Coyhaique</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>27/09/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,40 +7000,40 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto Alumysa</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2.75</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
+          <t>Proyecto Alumysa</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Teresita Carrillo Borquez</t>
+          <t>Sociedad Chilena Proyecto Alumysa Ltda</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>2.75</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Piscicultura Los Fiordos XI Región</t>
+          <t>Piscicultura en Estero Boca del León Arroyo Sin Nombre y Vertientes Sin Nombre</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Teresita Carrillo Borquez</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11/07/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Coyhaique XI Región</t>
+          <t>Piscicultura Los Fiordos XI Región</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>11/07/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Vertedero de Coyhaique</t>
+          <t>Estación de Servicio Copec Coyhaique XI Región</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plan Seccional de Ñirehuao</t>
+          <t>Ampliación Vertedero de Coyhaique</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7263,17 +7263,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Restaurante El Quincho</t>
+          <t>Plan Seccional de Ñirehuao</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Enrique Muñoz Belmar</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21/12/2000</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lodge Campo Bravo</t>
+          <t>Restaurante El Quincho</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Martha Mary Lyn Crawford</t>
+          <t>Enrique Muñoz Belmar</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>18/12/2000</t>
+          <t>21/12/2000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Presa y Turbina Lago Diunco</t>
+          <t>Lodge Campo Bravo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
+          <t>Presa y Turbina Lago Diunco</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,21 +7451,21 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15/12/2000</t>
+          <t>18/12/2000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
+          <t>Establecimiento de un Coto de Caza Mayor en Alto Ñirehuao</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Martha Mary Lyn Crawford</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/07/2000</t>
+          <t>15/12/2000</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
+          <t>Seccional Modificatorio Plan Regulador de Coyhaique</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>10/09/1999</t>
+          <t>13/07/2000</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Plan Seccional de Balmaceda</t>
+          <t>Extracción de Áridos y Depósito de Material en la Reserva Forestal Cerro Castillo</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Corporación Nacional Forestal Dirección Regional de Aysén</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>14/05/1999</t>
+          <t>10/09/1999</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Plan Seccional de El Blanco</t>
+          <t>Plan Seccional de Balmaceda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Plan Seccional de Valle Simpson</t>
+          <t>Plan Seccional de El Blanco</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Plan Seccional de Baguales</t>
+          <t>Plan Seccional de Valle Simpson</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Plan Seccional de Villa Frei</t>
+          <t>Plan Seccional de Baguales</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO</t>
+          <t>Plan Seccional de Villa Frei</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>14/05/1999</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
+          <t>Estación de Servicio ESSO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
+          <t>Sistema Particular de Alcantarillado Conjunto Habitacional de Viviendas Comité Padre Alberto Hurtado C. Villa El Blanco Comuna de Coyhaique</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ENAGAS S.A.</t>
+          <t>Comité de Viviendas Padre Alberto Hurtado C., Villa El Blanco</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>22/09/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Lago Atravesado</t>
+          <t>Nueva Planta de Almacenamiento y Envasado de Gas Licuado de Petróleo Enagas Coyhaique</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
+          <t>ENAGAS S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/07/1998</t>
+          <t>22/09/1998</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
+          <t>Central Hidroeléctrica Lago Atravesado</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Agropatagonia Ltda.</t>
+          <t>Empresa de Electricidad de Aysen, EDELAYSEN S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>110</v>
+        <v>24000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>22/07/1998</t>
+          <t>30/07/1998</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
+          <t>Sistema de Captación de Agua Potable y Alcantarillado para Planta Elaboradora de Quesos</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>Agropatagonia Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>22/07/1998</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
+          <t>Modificación al Plan Regulador de Coyhaique Proyecto Seccional Zona ZE1 Escuela E-35</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cristián Lira Breitler</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Drenaje Valle Simpson</t>
+          <t>Captación Impulsión Acumulación y Presurización de Agua Potable Particular Loteo Lira y Otros</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Georgio Catalán Patiño</t>
+          <t>Cristián Lira Breitler</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Furioso Exploración Veta Laguna</t>
+          <t>Drenaje Valle Simpson</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CDE Chilean Mining Corporation</t>
+          <t>Georgio Catalán Patiño</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5000</v>
+        <v>130</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>29/04/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,12 +8248,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
+          <t>Proyecto Furioso Exploración Veta Laguna</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coyhaique</t>
+          <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>29/04/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nuevo Relleno Sanitario</t>
+          <t>Modificación Plano Regulador de Coyhaique Seccional Juan Pablo II</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Toqui..</t>
+          <t>Ilustre Municipalidad de Coyhaique</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>16/01/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
+          <t>Nuevo Relleno Sanitario</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Comité Habitacional Chacra # 21</t>
+          <t>Sociedad Contractual Minera El Toqui..</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>09/01/1998</t>
+          <t>16/01/1998</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Proyecto Patagonia de Exploración Minera</t>
+          <t>Alcantarillado Particular para 15 Viviendas Progresivas en Villa Ortega</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aur Resources Colin Charles Brooks</t>
+          <t>Comité Habitacional Chacra # 21</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>09/01/1998</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,43 +8440,91 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>Proyecto Patagonia de Exploración Minera</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Aur Resources Colin Charles Brooks</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>500</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=281&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>Puerto Seco Frigonza</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>Inmobiliaria Inversiones FRIGONZA Ltda.</t>
         </is>
       </c>
-      <c r="F169" t="n">
+      <c r="F170" t="n">
         <v>44000</v>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>08/10/1997</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>Coyhaique</t>
         </is>

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Coyhaique.xlsx
+++ b/data/Coyhaique.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Red Aeroportuaria Austral Sociedad Concesionaria S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comercio Internacional</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Servicio de mantención in situ de redes semi-rígidas de Poliéster Aquagrid en la industria acuicola Chilena (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Comercio Internacional</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
